--- a/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30ED75FE-99DD-41EA-BD7F-F43055C49BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A20130E-F5D8-4834-B203-90A2709AB9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC5FA294-8407-46A6-8632-81DAD280EF02}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CF333F1-EBB5-48EB-949B-7CCC96EEFCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -413,706 +413,694 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>92,03%</t>
@@ -1121,118 +1109,130 @@
     <t>90,63%</t>
   </si>
   <si>
-    <t>93,23%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>10,26%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>7,08%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>89,74%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>92,92%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>7,88%</t>
@@ -1241,19 +1241,25 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>94,07%</t>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>91,64%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>93,44%</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AAE8A9-D310-4716-9BDC-7B0ED9DCE840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8824D1-D769-488B-B70D-359557B901FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2728,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E7B0E2-A627-4781-96FB-A6E9BCCDD4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2A8CEC-656E-4259-85D8-6AFF27ECA859}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3040,10 +3046,10 @@
         <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3064,13 @@
         <v>521243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3076,25 +3082,25 @@
         <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
       </c>
       <c r="N8" s="7">
-        <v>1047735</v>
+        <v>1047736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3142,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>1167260</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3165,10 +3171,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -3216,10 +3222,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>863</v>
@@ -3228,13 +3234,13 @@
         <v>948127</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1731</v>
@@ -3243,13 +3249,13 @@
         <v>1891512</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3323,13 @@
         <v>83089</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3332,13 +3338,13 @@
         <v>60443</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3347,13 +3353,13 @@
         <v>143532</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>673449</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -3383,13 +3389,13 @@
         <v>715840</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1261</v>
@@ -3398,13 +3404,13 @@
         <v>1389289</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3478,13 @@
         <v>95485</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3487,13 +3493,13 @@
         <v>96793</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3502,13 +3508,13 @@
         <v>192278</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3529,13 @@
         <v>848454</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>906</v>
@@ -3538,13 +3544,13 @@
         <v>951970</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1726</v>
@@ -3553,13 +3559,13 @@
         <v>1800424</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,7 +3711,7 @@
         <v>5914</v>
       </c>
       <c r="N20" s="7">
-        <v>6346291</v>
+        <v>6346290</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>218</v>
@@ -3756,7 +3762,7 @@
         <v>6488</v>
       </c>
       <c r="N21" s="7">
-        <v>6964236</v>
+        <v>6964235</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3791,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9EAE1B-8BAE-4428-9771-2F18667268F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FA6627-CD16-40B1-9CF9-DDABB34A27CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,13 +3921,13 @@
         <v>9112</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3933,10 +3939,10 @@
         <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3945,13 +3951,13 @@
         <v>16632</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3972,13 @@
         <v>107434</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3984,10 +3990,10 @@
         <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -3996,10 +4002,10 @@
         <v>213274</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>235</v>
@@ -4100,13 +4106,13 @@
         <v>80513</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4127,13 @@
         <v>527460</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4136,13 +4142,13 @@
         <v>509760</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4151,13 +4157,13 @@
         <v>1037220</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4231,13 @@
         <v>86431</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4243,10 +4249,10 @@
         <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4255,13 +4261,13 @@
         <v>172913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4282,13 @@
         <v>936000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
@@ -4294,10 +4300,10 @@
         <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4306,13 +4312,13 @@
         <v>1892431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4386,13 @@
         <v>51737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4398,10 +4404,10 @@
         <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4410,13 +4416,13 @@
         <v>106686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4437,13 @@
         <v>707815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4449,10 +4455,10 @@
         <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -4461,13 +4467,13 @@
         <v>1437877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4541,13 @@
         <v>83058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -4550,13 +4556,13 @@
         <v>96609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4565,13 +4571,13 @@
         <v>179667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4592,13 @@
         <v>854509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
@@ -4601,13 +4607,13 @@
         <v>947170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4616,13 +4622,13 @@
         <v>1801679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4696,13 @@
         <v>261133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -4708,10 +4714,10 @@
         <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>525</v>
@@ -4720,13 +4726,13 @@
         <v>556411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4747,13 @@
         <v>3133217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>3062</v>
@@ -4759,10 +4765,10 @@
         <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>6044</v>
@@ -4771,13 +4777,13 @@
         <v>6382481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FD143C-DD23-44BB-B857-2E873A9668DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140E7B2-34F0-4924-9B5E-0E942647C253}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4871,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4978,13 +4984,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4993,13 +4999,13 @@
         <v>14471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5008,13 +5014,13 @@
         <v>15306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5035,13 @@
         <v>101147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -5044,13 +5050,13 @@
         <v>115905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
@@ -5059,13 +5065,13 @@
         <v>217052</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5139,13 @@
         <v>38152</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -5148,13 +5154,13 @@
         <v>31564</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -5166,10 +5172,10 @@
         <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5190,13 @@
         <v>511671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>940</v>
@@ -5199,13 +5205,13 @@
         <v>561398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>1507</v>
@@ -5217,10 +5223,10 @@
         <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5294,13 @@
         <v>73682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -5303,13 +5309,13 @@
         <v>93660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5318,13 +5324,13 @@
         <v>167342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5345,13 @@
         <v>965566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>1383</v>
@@ -5354,13 +5360,13 @@
         <v>965814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>2279</v>
@@ -5369,13 +5375,13 @@
         <v>1931380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5449,13 @@
         <v>47072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5458,13 +5464,13 @@
         <v>46546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -5473,13 +5479,13 @@
         <v>93618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5500,13 @@
         <v>680629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>984</v>
@@ -5509,13 +5515,13 @@
         <v>826360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5524,13 +5530,13 @@
         <v>1506989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5604,13 @@
         <v>73921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -5613,13 +5619,13 @@
         <v>99710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>221</v>
@@ -5628,13 +5634,13 @@
         <v>173631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5655,13 @@
         <v>891482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>1413</v>
@@ -5664,13 +5670,13 @@
         <v>1046593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>2344</v>
@@ -5679,13 +5685,13 @@
         <v>1938075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5759,13 @@
         <v>233661</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -5768,10 +5774,10 @@
         <v>285951</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>396</v>
@@ -5783,7 +5789,7 @@
         <v>519612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>397</v>
@@ -5807,10 +5813,10 @@
         <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>4937</v>
@@ -5819,13 +5825,13 @@
         <v>3516071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>8076</v>
@@ -5834,13 +5840,13 @@
         <v>6666567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A20130E-F5D8-4834-B203-90A2709AB9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7CB9A4-7E1C-4726-BC54-B94AB8B57C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CF333F1-EBB5-48EB-949B-7CCC96EEFCC2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{593A124C-41CE-492A-A307-93CF102CC342}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,1071 +80,1032 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>12,97%</t>
+    <t>14,62%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
     <t>92,81%</t>
   </si>
   <si>
@@ -1154,9 +1115,6 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
@@ -1166,18 +1124,12 @@
     <t>5,88%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
     <t>8,7%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
     <t>8,22%</t>
   </si>
   <si>
@@ -1190,18 +1142,12 @@
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
     <t>94,12%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
     <t>92,72%</t>
   </si>
   <si>
@@ -1229,9 +1175,6 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
     <t>6,56%</t>
   </si>
   <si>
@@ -1248,9 +1191,6 @@
   </si>
   <si>
     <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -1671,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8824D1-D769-488B-B70D-359557B901FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D89CEC-25D3-47D3-84BD-7D0C57D48370}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,10 +1923,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1941,13 @@
         <v>549139</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -2016,13 +1956,13 @@
         <v>552035</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1092</v>
@@ -2031,13 +1971,13 @@
         <v>1101174</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2033,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2105,13 +2045,13 @@
         <v>75142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2120,13 +2060,13 @@
         <v>58384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -2135,13 +2075,13 @@
         <v>133526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2096,13 @@
         <v>886658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2171,13 +2111,13 @@
         <v>910009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1682</v>
@@ -2186,13 +2126,13 @@
         <v>1796667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,7 +2188,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2260,13 +2200,13 @@
         <v>47500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -2275,13 +2215,13 @@
         <v>44573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -2290,13 +2230,13 @@
         <v>92073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2251,13 @@
         <v>631009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>651</v>
@@ -2326,13 +2266,13 @@
         <v>639268</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1247</v>
@@ -2341,13 +2281,13 @@
         <v>1270277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2415,13 +2355,13 @@
         <v>67138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -2430,13 +2370,13 @@
         <v>86124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -2445,13 +2385,13 @@
         <v>153263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2406,13 @@
         <v>875084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -2481,13 +2421,13 @@
         <v>952488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1835</v>
@@ -2496,13 +2436,13 @@
         <v>1827571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2510,13 @@
         <v>226720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -2585,13 +2525,13 @@
         <v>217084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>434</v>
@@ -2600,13 +2540,13 @@
         <v>443804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2561,13 @@
         <v>3048805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>3090</v>
@@ -2636,28 +2576,28 @@
         <v>3162114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>6076</v>
       </c>
       <c r="N20" s="7">
-        <v>6210918</v>
+        <v>6210919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2639,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2713,7 +2653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2A8CEC-656E-4259-85D8-6AFF27ECA859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6700B19-F608-41AE-A41C-590957B017B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2858,13 +2798,13 @@
         <v>5280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2873,13 +2813,13 @@
         <v>4247</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2888,13 +2828,13 @@
         <v>9527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2849,13 @@
         <v>109670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2924,13 +2864,13 @@
         <v>107658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2939,13 +2879,13 @@
         <v>217328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2953,13 @@
         <v>64571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -3028,13 +2968,13 @@
         <v>54952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -3043,13 +2983,13 @@
         <v>119524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3004,13 @@
         <v>521243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3079,13 +3019,13 @@
         <v>526494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -3094,13 +3034,13 @@
         <v>1047736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3096,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3171,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -3183,13 +3123,13 @@
         <v>78523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -3198,13 +3138,13 @@
         <v>153085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,10 +3162,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>863</v>
@@ -3234,13 +3174,13 @@
         <v>948127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>1731</v>
@@ -3249,13 +3189,13 @@
         <v>1891512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3251,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3323,13 +3263,13 @@
         <v>83089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3338,13 +3278,13 @@
         <v>60443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3353,13 +3293,13 @@
         <v>143532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3314,13 @@
         <v>673449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -3389,13 +3329,13 @@
         <v>715840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>1261</v>
@@ -3404,13 +3344,13 @@
         <v>1389289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3478,13 +3418,13 @@
         <v>95485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3493,13 +3433,13 @@
         <v>96793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3508,13 +3448,13 @@
         <v>192278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3469,13 @@
         <v>848454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>906</v>
@@ -3544,13 +3484,13 @@
         <v>951970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>1726</v>
@@ -3559,13 +3499,13 @@
         <v>1800424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3573,13 @@
         <v>322987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>280</v>
@@ -3648,13 +3588,13 @@
         <v>294958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>574</v>
@@ -3663,13 +3603,13 @@
         <v>617945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3624,13 @@
         <v>3096201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>3006</v>
@@ -3699,13 +3639,13 @@
         <v>3250090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>5914</v>
@@ -3714,13 +3654,13 @@
         <v>6346290</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FA6627-CD16-40B1-9CF9-DDABB34A27CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2F2C7-6EC8-4DC4-A602-A3018BAA108B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,13 +3861,13 @@
         <v>9112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3936,13 +3876,13 @@
         <v>7520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3951,13 +3891,13 @@
         <v>16632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3912,13 @@
         <v>107434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3987,13 +3927,13 @@
         <v>105840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -4002,13 +3942,13 @@
         <v>213274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4016,13 @@
         <v>30794</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4091,13 +4031,13 @@
         <v>49719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4106,13 +4046,13 @@
         <v>80513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4067,13 @@
         <v>527460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4142,13 +4082,13 @@
         <v>509760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4157,13 +4097,13 @@
         <v>1037220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4231,13 +4171,13 @@
         <v>86431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4246,13 +4186,13 @@
         <v>86482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4261,13 +4201,13 @@
         <v>172913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4222,13 @@
         <v>936000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
@@ -4297,13 +4237,13 @@
         <v>956431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4312,13 +4252,13 @@
         <v>1892431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4326,13 @@
         <v>51737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4401,13 +4341,13 @@
         <v>54949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4416,13 +4356,13 @@
         <v>106686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4377,13 @@
         <v>707815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4452,13 +4392,13 @@
         <v>730062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -4467,13 +4407,13 @@
         <v>1437877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4541,13 +4481,13 @@
         <v>83058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -4556,13 +4496,13 @@
         <v>96609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4571,13 +4511,13 @@
         <v>179667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4532,13 @@
         <v>854509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
@@ -4607,13 +4547,13 @@
         <v>947170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4622,13 +4562,13 @@
         <v>1801679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4636,13 @@
         <v>261133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -4711,13 +4651,13 @@
         <v>295278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>525</v>
@@ -4726,13 +4666,13 @@
         <v>556411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4687,13 @@
         <v>3133217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>3062</v>
@@ -4762,13 +4702,13 @@
         <v>3249264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>6044</v>
@@ -4777,13 +4717,13 @@
         <v>6382481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4860,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140E7B2-34F0-4924-9B5E-0E942647C253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B3FBE9-C1D4-4856-BFFE-F337F4EF41E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4877,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4984,13 +4924,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4999,13 +4939,13 @@
         <v>14471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5014,13 +4954,13 @@
         <v>15306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +4975,13 @@
         <v>101147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -5050,13 +4990,13 @@
         <v>115905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
@@ -5065,13 +5005,13 @@
         <v>217052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5079,13 @@
         <v>38152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -5154,13 +5094,13 @@
         <v>31564</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -5169,13 +5109,13 @@
         <v>69716</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5130,13 @@
         <v>511671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>940</v>
@@ -5205,13 +5145,13 @@
         <v>561398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>1507</v>
@@ -5220,13 +5160,13 @@
         <v>1073069</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5222,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5294,13 +5234,13 @@
         <v>73682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -5309,13 +5249,13 @@
         <v>93660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5324,13 +5264,13 @@
         <v>167342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5285,13 @@
         <v>965566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>1383</v>
@@ -5360,13 +5300,13 @@
         <v>965814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>2279</v>
@@ -5375,13 +5315,13 @@
         <v>1931380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5377,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5449,13 +5389,13 @@
         <v>47072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5464,13 +5404,13 @@
         <v>46546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -5479,13 +5419,13 @@
         <v>93618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5440,13 @@
         <v>680629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>984</v>
@@ -5515,13 +5455,13 @@
         <v>826360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5530,13 +5470,13 @@
         <v>1506989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5604,13 +5544,13 @@
         <v>73921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -5619,13 +5559,13 @@
         <v>99710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>221</v>
@@ -5634,13 +5574,13 @@
         <v>173631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5595,13 @@
         <v>891482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>1413</v>
@@ -5670,13 +5610,13 @@
         <v>1046593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>2344</v>
@@ -5685,13 +5625,13 @@
         <v>1938075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5699,13 @@
         <v>233661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -5774,13 +5714,13 @@
         <v>285951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>657</v>
@@ -5789,13 +5729,13 @@
         <v>519612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5750,13 @@
         <v>3150497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>4937</v>
@@ -5825,13 +5765,13 @@
         <v>3516071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>8076</v>
@@ -5840,13 +5780,13 @@
         <v>6666567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E7CB9A4-7E1C-4726-BC54-B94AB8B57C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF469B98-08D7-4465-B79A-B6E54D2F41EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{593A124C-41CE-492A-A307-93CF102CC342}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC0872AE-AC77-4561-86CA-996919D038B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="405">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -80,25 +80,25 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>14,62%</t>
+    <t>12,97%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>92,68%</t>
   </si>
   <si>
-    <t>85,38%</t>
+    <t>87,03%</t>
   </si>
   <si>
     <t>96,42%</t>
@@ -116,19 +116,19 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,991 +197,1042 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>9,88%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,88%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>10,26%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>94,12%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>92,72%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>92,92%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>7,88%</t>
@@ -1184,22 +1241,19 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>94,07%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>93,43%</t>
+    <t>91,64%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>93,42%</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D89CEC-25D3-47D3-84BD-7D0C57D48370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87147979-35B6-4994-B8F9-5397A0384A8C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1923,10 +1977,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1995,13 @@
         <v>549139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -1956,13 +2010,13 @@
         <v>552035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1092</v>
@@ -1971,13 +2025,13 @@
         <v>1101174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2087,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2045,13 +2099,13 @@
         <v>75142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2060,13 +2114,13 @@
         <v>58384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -2075,13 +2129,13 @@
         <v>133526</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2150,13 @@
         <v>886658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2111,13 +2165,13 @@
         <v>910009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1682</v>
@@ -2126,13 +2180,13 @@
         <v>1796667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2242,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2200,13 +2254,13 @@
         <v>47500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -2215,13 +2269,13 @@
         <v>44573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -2230,13 +2284,13 @@
         <v>92073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2305,13 @@
         <v>631009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>651</v>
@@ -2266,13 +2320,13 @@
         <v>639268</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1247</v>
@@ -2281,13 +2335,13 @@
         <v>1270277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2397,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2409,13 @@
         <v>67138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -2370,13 +2424,13 @@
         <v>86124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>156</v>
@@ -2385,13 +2439,13 @@
         <v>153263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2460,13 @@
         <v>875084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -2421,13 +2475,13 @@
         <v>952488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1835</v>
@@ -2436,13 +2490,13 @@
         <v>1827571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2564,13 @@
         <v>226720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -2525,13 +2579,13 @@
         <v>217084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>434</v>
@@ -2540,13 +2594,13 @@
         <v>443804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2615,13 @@
         <v>3048805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3090</v>
@@ -2576,28 +2630,28 @@
         <v>3162114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>6076</v>
       </c>
       <c r="N20" s="7">
-        <v>6210919</v>
+        <v>6210918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2693,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2653,7 +2707,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6700B19-F608-41AE-A41C-590957B017B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E2DA98-BB1A-4AA7-B2A0-3FAED2DBFACC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2745,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,13 +2852,13 @@
         <v>5280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2813,13 +2867,13 @@
         <v>4247</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2828,13 +2882,13 @@
         <v>9527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2903,13 @@
         <v>109670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>95</v>
@@ -2864,13 +2918,13 @@
         <v>107658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2879,13 +2933,13 @@
         <v>217328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +3007,13 @@
         <v>64571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -2968,13 +3022,13 @@
         <v>54952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -2983,13 +3037,13 @@
         <v>119524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3058,13 @@
         <v>521243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>496</v>
@@ -3019,28 +3073,28 @@
         <v>526494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
       </c>
       <c r="N8" s="7">
-        <v>1047736</v>
+        <v>1047735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3136,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167260</v>
+        <v>1167259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3096,7 +3150,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3111,10 +3165,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -3123,13 +3177,13 @@
         <v>78523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>140</v>
@@ -3138,13 +3192,13 @@
         <v>153085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,10 +3216,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>863</v>
@@ -3174,13 +3228,13 @@
         <v>948127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1731</v>
@@ -3189,13 +3243,13 @@
         <v>1891512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3305,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3317,13 @@
         <v>83089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -3278,13 +3332,13 @@
         <v>60443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3293,13 +3347,13 @@
         <v>143532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3368,13 @@
         <v>673449</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -3329,13 +3383,13 @@
         <v>715840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1261</v>
@@ -3344,13 +3398,13 @@
         <v>1389289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3460,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3472,13 @@
         <v>95485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3433,13 +3487,13 @@
         <v>96793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -3448,13 +3502,13 @@
         <v>192278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3523,13 @@
         <v>848454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>906</v>
@@ -3484,13 +3538,13 @@
         <v>951970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1726</v>
@@ -3499,13 +3553,13 @@
         <v>1800424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3627,13 @@
         <v>322987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>280</v>
@@ -3588,13 +3642,13 @@
         <v>294958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>574</v>
@@ -3603,13 +3657,13 @@
         <v>617945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3678,13 @@
         <v>3096201</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>3006</v>
@@ -3639,28 +3693,28 @@
         <v>3250090</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>5914</v>
       </c>
       <c r="N20" s="7">
-        <v>6346290</v>
+        <v>6346291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,7 +3756,7 @@
         <v>6488</v>
       </c>
       <c r="N21" s="7">
-        <v>6964235</v>
+        <v>6964236</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3716,7 +3770,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2F2C7-6EC8-4DC4-A602-A3018BAA108B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A337779-C541-4533-B42A-851307DD8394}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,13 +3915,13 @@
         <v>9112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3876,13 +3930,13 @@
         <v>7520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -3891,13 +3945,13 @@
         <v>16632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3966,13 @@
         <v>107434</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>107</v>
@@ -3927,13 +3981,13 @@
         <v>105840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -3942,13 +3996,13 @@
         <v>213274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4070,13 @@
         <v>30794</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -4031,13 +4085,13 @@
         <v>49719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4046,13 +4100,13 @@
         <v>80513</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4121,13 @@
         <v>527460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -4082,13 +4136,13 @@
         <v>509760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4097,13 +4151,13 @@
         <v>1037220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4213,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4171,13 +4225,13 @@
         <v>86431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4186,13 +4240,13 @@
         <v>86482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4201,13 +4255,13 @@
         <v>172913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4276,13 @@
         <v>936000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
@@ -4237,13 +4291,13 @@
         <v>956431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4252,13 +4306,13 @@
         <v>1892431</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4368,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4326,13 +4380,13 @@
         <v>51737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4341,13 +4395,13 @@
         <v>54949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -4356,13 +4410,13 @@
         <v>106686</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4431,13 @@
         <v>707815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4392,13 +4446,13 @@
         <v>730062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1334</v>
@@ -4407,13 +4461,13 @@
         <v>1437877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4523,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4481,13 +4535,13 @@
         <v>83058</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -4496,13 +4550,13 @@
         <v>96609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4511,13 +4565,13 @@
         <v>179667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4586,13 @@
         <v>854509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>869</v>
@@ -4547,13 +4601,13 @@
         <v>947170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4562,13 +4616,13 @@
         <v>1801679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4690,13 @@
         <v>261133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -4651,13 +4705,13 @@
         <v>295278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>525</v>
@@ -4666,13 +4720,13 @@
         <v>556411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4741,13 @@
         <v>3133217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>3062</v>
@@ -4702,13 +4756,13 @@
         <v>3249264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>6044</v>
@@ -4717,13 +4771,13 @@
         <v>6382481</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4833,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B3FBE9-C1D4-4856-BFFE-F337F4EF41E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5736EA-A987-47DB-A00B-88E309D5C5E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4817,7 +4871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4924,13 +4978,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4939,13 +4993,13 @@
         <v>14471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4954,13 +5008,13 @@
         <v>15306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +5029,13 @@
         <v>101147</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>217</v>
@@ -4990,13 +5044,13 @@
         <v>115905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>334</v>
@@ -5005,13 +5059,13 @@
         <v>217052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5133,13 @@
         <v>38152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -5094,13 +5148,13 @@
         <v>31564</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -5109,13 +5163,13 @@
         <v>69716</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5184,13 @@
         <v>511671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>940</v>
@@ -5145,13 +5199,13 @@
         <v>561398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1507</v>
@@ -5160,13 +5214,13 @@
         <v>1073069</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,7 +5276,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5234,13 +5288,13 @@
         <v>73682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -5249,13 +5303,13 @@
         <v>93660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -5264,13 +5318,13 @@
         <v>167342</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5339,13 @@
         <v>965566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1383</v>
@@ -5300,13 +5354,13 @@
         <v>965814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>2279</v>
@@ -5315,13 +5369,13 @@
         <v>1931380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,7 +5431,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5389,13 +5443,13 @@
         <v>47072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5404,13 +5458,13 @@
         <v>46546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -5419,13 +5473,13 @@
         <v>93618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5494,13 @@
         <v>680629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>984</v>
@@ -5455,13 +5509,13 @@
         <v>826360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1612</v>
@@ -5470,13 +5524,13 @@
         <v>1506989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5544,13 +5598,13 @@
         <v>73921</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>146</v>
@@ -5559,13 +5613,13 @@
         <v>99710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>221</v>
@@ -5574,13 +5628,13 @@
         <v>173631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5649,13 @@
         <v>891482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>1413</v>
@@ -5610,13 +5664,13 @@
         <v>1046593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>2344</v>
@@ -5625,13 +5679,13 @@
         <v>1938075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>371</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5753,13 @@
         <v>233661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>421</v>
@@ -5714,13 +5768,13 @@
         <v>285951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>657</v>
@@ -5729,13 +5783,13 @@
         <v>519612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5804,13 @@
         <v>3150497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>4937</v>
@@ -5765,13 +5819,13 @@
         <v>3516071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>8076</v>
@@ -5780,13 +5834,13 @@
         <v>6666567</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5896,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF469B98-08D7-4465-B79A-B6E54D2F41EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{545A2293-00BA-400A-834E-6B3F928B09FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC0872AE-AC77-4561-86CA-996919D038B1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{36D9B5AC-537D-467C-B241-2CB276FD42C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="344">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,471 +68,372 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
     <t>94,34%</t>
   </si>
   <si>
@@ -707,553 +608,469 @@
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1482,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87147979-35B6-4994-B8F9-5397A0384A8C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C77D4B4-88A3-4054-B395-A4720ACE257C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1783,10 +1600,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>8442</v>
+        <v>36939</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1798,10 +1615,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>4442</v>
+        <v>28003</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1813,10 +1630,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>12884</v>
+        <v>64942</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1834,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>97</v>
+        <v>644</v>
       </c>
       <c r="D5" s="7">
-        <v>106916</v>
+        <v>656055</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1849,10 +1666,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>123</v>
+        <v>668</v>
       </c>
       <c r="I5" s="7">
-        <v>108313</v>
+        <v>660348</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1864,10 +1681,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1312</v>
       </c>
       <c r="N5" s="7">
-        <v>215229</v>
+        <v>1316403</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1885,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1900,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1915,10 +1732,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1938,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>28497</v>
+        <v>75142</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1953,10 +1770,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>23561</v>
+        <v>58384</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1968,10 +1785,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>52058</v>
+        <v>133526</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1989,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>547</v>
+        <v>825</v>
       </c>
       <c r="D8" s="7">
-        <v>549139</v>
+        <v>886658</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2004,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>545</v>
+        <v>857</v>
       </c>
       <c r="I8" s="7">
-        <v>552035</v>
+        <v>910009</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2019,10 +1836,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1092</v>
+        <v>1682</v>
       </c>
       <c r="N8" s="7">
-        <v>1101174</v>
+        <v>1796667</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2040,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2055,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2070,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2093,10 +1910,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>75142</v>
+        <v>47500</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2108,10 +1925,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>58384</v>
+        <v>44573</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2123,10 +1940,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>133526</v>
+        <v>92073</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2144,10 +1961,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>825</v>
+        <v>596</v>
       </c>
       <c r="D11" s="7">
-        <v>886658</v>
+        <v>631009</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2159,10 +1976,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>857</v>
+        <v>651</v>
       </c>
       <c r="I11" s="7">
-        <v>910009</v>
+        <v>639268</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2174,10 +1991,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1682</v>
+        <v>1247</v>
       </c>
       <c r="N11" s="7">
-        <v>1796667</v>
+        <v>1270277</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2195,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2210,10 +2027,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2225,10 +2042,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2248,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>47500</v>
+        <v>67138</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2263,10 +2080,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>44573</v>
+        <v>86124</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2278,10 +2095,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="N13" s="7">
-        <v>92073</v>
+        <v>153263</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2299,10 +2116,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>596</v>
+        <v>921</v>
       </c>
       <c r="D14" s="7">
-        <v>631009</v>
+        <v>875084</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2314,10 +2131,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>651</v>
+        <v>914</v>
       </c>
       <c r="I14" s="7">
-        <v>639268</v>
+        <v>952488</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2329,10 +2146,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1247</v>
+        <v>1835</v>
       </c>
       <c r="N14" s="7">
-        <v>1270277</v>
+        <v>1827571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2350,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2365,10 +2182,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2380,10 +2197,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2397,55 +2214,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="D16" s="7">
-        <v>67138</v>
+        <v>226720</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>207</v>
+      </c>
+      <c r="I16" s="7">
+        <v>217084</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>83</v>
-      </c>
-      <c r="I16" s="7">
-        <v>86124</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>434</v>
+      </c>
+      <c r="N16" s="7">
+        <v>443804</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>156</v>
-      </c>
-      <c r="N16" s="7">
-        <v>153263</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,49 +2271,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>921</v>
+        <v>2986</v>
       </c>
       <c r="D17" s="7">
-        <v>875084</v>
+        <v>3048805</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3090</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3162113</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>914</v>
-      </c>
-      <c r="I17" s="7">
-        <v>952488</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6076</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6210918</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1835</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1827571</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2520,10 +2337,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2535,10 +2352,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2551,171 +2368,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>227</v>
-      </c>
-      <c r="D19" s="7">
-        <v>226720</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>207</v>
-      </c>
-      <c r="I19" s="7">
-        <v>217084</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>434</v>
-      </c>
-      <c r="N19" s="7">
-        <v>443804</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2986</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3048805</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3090</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3162114</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6076</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6210918</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2728,8 +2389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E2DA98-BB1A-4AA7-B2A0-3FAED2DBFACC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E9A1DB-509C-4453-B63F-5DBB9DAA0F3D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2745,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,49 +2507,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>5280</v>
+        <v>69851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>4247</v>
+        <v>59199</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>9527</v>
+        <v>129051</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,49 +2558,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>605</v>
+      </c>
+      <c r="D5" s="7">
+        <v>630913</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7">
+        <v>591</v>
+      </c>
+      <c r="I5" s="7">
+        <v>634152</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>109670</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>95</v>
-      </c>
-      <c r="I5" s="7">
-        <v>107658</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>211</v>
+        <v>1196</v>
       </c>
       <c r="N5" s="7">
-        <v>217328</v>
+        <v>1265064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2963,10 +2624,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2978,10 +2639,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1394115</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3001,49 +2662,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>64571</v>
+        <v>74562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>54952</v>
+        <v>78523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="N7" s="7">
-        <v>119524</v>
+        <v>153085</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,49 +2713,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>489</v>
+        <v>868</v>
       </c>
       <c r="D8" s="7">
-        <v>521243</v>
+        <v>943385</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>496</v>
+        <v>863</v>
       </c>
       <c r="I8" s="7">
-        <v>526494</v>
+        <v>948127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>985</v>
+        <v>1731</v>
       </c>
       <c r="N8" s="7">
-        <v>1047735</v>
+        <v>1891512</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3118,10 +2779,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>581446</v>
+        <v>1026650</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3133,10 +2794,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1098</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>2044597</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3156,49 +2817,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>74562</v>
+        <v>83089</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>78523</v>
+        <v>60443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>153085</v>
+        <v>143532</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,49 +2868,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>868</v>
+        <v>615</v>
       </c>
       <c r="D11" s="7">
-        <v>943385</v>
+        <v>673449</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>863</v>
+        <v>646</v>
       </c>
       <c r="I11" s="7">
-        <v>948127</v>
+        <v>715840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1731</v>
+        <v>1261</v>
       </c>
       <c r="N11" s="7">
-        <v>1891512</v>
+        <v>1389289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,10 +2919,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3273,10 +2934,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1026650</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3288,10 +2949,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2044597</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3311,49 +2972,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>83089</v>
+        <v>95485</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>60443</v>
+        <v>96793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="N13" s="7">
-        <v>143532</v>
+        <v>192278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3023,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>615</v>
+        <v>820</v>
       </c>
       <c r="D14" s="7">
-        <v>673449</v>
+        <v>848454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>646</v>
+        <v>906</v>
       </c>
       <c r="I14" s="7">
-        <v>715840</v>
+        <v>951970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1261</v>
+        <v>1726</v>
       </c>
       <c r="N14" s="7">
-        <v>1389289</v>
+        <v>1800425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,10 +3074,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3428,10 +3089,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3443,10 +3104,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3460,55 +3121,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>294</v>
       </c>
       <c r="D16" s="7">
-        <v>95485</v>
+        <v>322987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="I16" s="7">
-        <v>96793</v>
+        <v>294958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>181</v>
+        <v>574</v>
       </c>
       <c r="N16" s="7">
-        <v>192278</v>
+        <v>617945</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,49 +3178,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>820</v>
+        <v>2908</v>
       </c>
       <c r="D17" s="7">
-        <v>848454</v>
+        <v>3096201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
-        <v>906</v>
+        <v>3006</v>
       </c>
       <c r="I17" s="7">
-        <v>951970</v>
+        <v>3250089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1726</v>
+        <v>5914</v>
       </c>
       <c r="N17" s="7">
-        <v>1800424</v>
+        <v>6346290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3419188</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3583,10 +3244,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3286</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3545047</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3598,10 +3259,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6488</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6964235</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3614,171 +3275,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>294</v>
-      </c>
-      <c r="D19" s="7">
-        <v>322987</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>280</v>
-      </c>
-      <c r="I19" s="7">
-        <v>294958</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>574</v>
-      </c>
-      <c r="N19" s="7">
-        <v>617945</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2908</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3096201</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3006</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3250090</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5914</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6346291</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419188</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3286</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3545048</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6964236</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3791,8 +3296,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A337779-C541-4533-B42A-851307DD8394}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34174487-7EB7-4110-9422-0003E9E78705}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3808,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3909,49 +3414,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>9112</v>
+        <v>39906</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>7520</v>
+        <v>57239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N4" s="7">
-        <v>16632</v>
+        <v>97145</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +3465,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>613</v>
       </c>
       <c r="D5" s="7">
-        <v>107434</v>
+        <v>634894</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>610</v>
       </c>
       <c r="I5" s="7">
-        <v>105840</v>
+        <v>615600</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>211</v>
+        <v>1223</v>
       </c>
       <c r="N5" s="7">
-        <v>213274</v>
+        <v>1250494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +3516,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4026,10 +3531,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4041,10 +3546,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4064,49 +3569,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>30794</v>
+        <v>86431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7">
-        <v>49719</v>
+        <v>86482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="N7" s="7">
-        <v>80513</v>
+        <v>172913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,49 +3620,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>509</v>
+        <v>872</v>
       </c>
       <c r="D8" s="7">
-        <v>527460</v>
+        <v>936000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
-        <v>503</v>
+        <v>898</v>
       </c>
       <c r="I8" s="7">
-        <v>509760</v>
+        <v>956431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>1012</v>
+        <v>1770</v>
       </c>
       <c r="N8" s="7">
-        <v>1037220</v>
+        <v>1892431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4181,10 +3686,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4196,10 +3701,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4219,49 +3724,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>86431</v>
+        <v>51737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>86482</v>
+        <v>54949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>172913</v>
+        <v>106686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,49 +3775,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>872</v>
+        <v>649</v>
       </c>
       <c r="D11" s="7">
-        <v>936000</v>
+        <v>707815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>898</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>956431</v>
+        <v>730062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>1770</v>
+        <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1892431</v>
+        <v>1437877</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4336,10 +3841,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4351,10 +3856,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4374,49 +3879,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>51737</v>
+        <v>83058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>54949</v>
+        <v>96609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>106686</v>
+        <v>179667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,49 +3930,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>649</v>
+        <v>848</v>
       </c>
       <c r="D14" s="7">
-        <v>707815</v>
+        <v>854509</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
-        <v>685</v>
+        <v>869</v>
       </c>
       <c r="I14" s="7">
-        <v>730062</v>
+        <v>947170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>1334</v>
+        <v>1717</v>
       </c>
       <c r="N14" s="7">
-        <v>1437877</v>
+        <v>1801679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4491,10 +3996,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4506,10 +4011,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4523,55 +4028,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="D16" s="7">
-        <v>83058</v>
+        <v>261133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="I16" s="7">
-        <v>96609</v>
+        <v>295278</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>174</v>
+        <v>525</v>
       </c>
       <c r="N16" s="7">
-        <v>179667</v>
+        <v>556411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,49 +4085,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>848</v>
+        <v>2982</v>
       </c>
       <c r="D17" s="7">
-        <v>854509</v>
+        <v>3133217</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
-        <v>869</v>
+        <v>3062</v>
       </c>
       <c r="I17" s="7">
-        <v>947170</v>
+        <v>3249264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
-        <v>1717</v>
+        <v>6044</v>
       </c>
       <c r="N17" s="7">
-        <v>1801679</v>
+        <v>6382481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,10 +4136,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4646,10 +4151,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4661,10 +4166,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4677,171 +4182,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>249</v>
-      </c>
-      <c r="D19" s="7">
-        <v>261133</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H19" s="7">
-        <v>276</v>
-      </c>
-      <c r="I19" s="7">
-        <v>295278</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M19" s="7">
-        <v>525</v>
-      </c>
-      <c r="N19" s="7">
-        <v>556411</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2982</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3133217</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3062</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3249264</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6044</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6382481</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4854,8 +4203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5736EA-A987-47DB-A00B-88E309D5C5E4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFCFCFA-12F8-499B-A3BE-48235C753CA8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4871,7 +4220,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4972,49 +4321,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>835</v>
+        <v>37584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I4" s="7">
-        <v>14471</v>
+        <v>43187</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="N4" s="7">
-        <v>15306</v>
+        <v>80771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,49 +4372,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>684</v>
       </c>
       <c r="D5" s="7">
-        <v>101147</v>
+        <v>597857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
-        <v>217</v>
+        <v>1157</v>
       </c>
       <c r="I5" s="7">
-        <v>115905</v>
+        <v>632235</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
-        <v>334</v>
+        <v>1841</v>
       </c>
       <c r="N5" s="7">
-        <v>217052</v>
+        <v>1230092</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5089,10 +4438,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5104,10 +4453,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310863</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5127,49 +4476,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>38152</v>
+        <v>72922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>31564</v>
+        <v>85744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>69716</v>
+        <v>158666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,49 +4527,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>567</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>511671</v>
+        <v>1119942</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
-        <v>940</v>
+        <v>1383</v>
       </c>
       <c r="I8" s="7">
-        <v>561398</v>
+        <v>872362</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
-        <v>1507</v>
+        <v>2279</v>
       </c>
       <c r="N8" s="7">
-        <v>1073069</v>
+        <v>1992305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5244,10 +4593,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5259,10 +4608,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5282,49 +4631,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>73682</v>
+        <v>45646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>93660</v>
+        <v>41946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>167342</v>
+        <v>87592</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +4682,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>896</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>965566</v>
+        <v>658038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
-        <v>1383</v>
+        <v>984</v>
       </c>
       <c r="I11" s="7">
-        <v>965814</v>
+        <v>890073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
-        <v>2279</v>
+        <v>1612</v>
       </c>
       <c r="N11" s="7">
-        <v>1931380</v>
+        <v>1548111</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,10 +4733,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5399,10 +4748,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932019</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5414,10 +4763,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1635703</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5437,49 +4786,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>47072</v>
+        <v>72479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="I13" s="7">
-        <v>46546</v>
+        <v>90615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="N13" s="7">
-        <v>93618</v>
+        <v>163094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,49 +4837,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>628</v>
+        <v>931</v>
       </c>
       <c r="D14" s="7">
-        <v>680629</v>
+        <v>854352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
-        <v>984</v>
+        <v>1413</v>
       </c>
       <c r="I14" s="7">
-        <v>826360</v>
+        <v>1000759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
-        <v>1612</v>
+        <v>2344</v>
       </c>
       <c r="N14" s="7">
-        <v>1506989</v>
+        <v>1855111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5554,10 +4903,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872906</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5569,10 +4918,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1600607</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5586,55 +4935,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>73921</v>
+        <v>228631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
-        <v>146</v>
+        <v>421</v>
       </c>
       <c r="I16" s="7">
-        <v>99710</v>
+        <v>261492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
-        <v>221</v>
+        <v>657</v>
       </c>
       <c r="N16" s="7">
-        <v>173631</v>
+        <v>490123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,49 +4992,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>931</v>
+        <v>3139</v>
       </c>
       <c r="D17" s="7">
-        <v>891482</v>
+        <v>3230189</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
-        <v>1413</v>
+        <v>4937</v>
       </c>
       <c r="I17" s="7">
-        <v>1046593</v>
+        <v>3395429</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
-        <v>2344</v>
+        <v>8076</v>
       </c>
       <c r="N17" s="7">
-        <v>1938075</v>
+        <v>6625618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5709,10 +5058,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3656921</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5724,10 +5073,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7115741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5740,171 +5089,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>236</v>
-      </c>
-      <c r="D19" s="7">
-        <v>233661</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="7">
-        <v>421</v>
-      </c>
-      <c r="I19" s="7">
-        <v>285951</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M19" s="7">
-        <v>657</v>
-      </c>
-      <c r="N19" s="7">
-        <v>519612</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3150497</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4937</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3516071</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8076</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6666567</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802022</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186179</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
